--- a/787DD97A_API/primer.xlsx
+++ b/787DD97A_API/primer.xlsx
@@ -47345,7 +47345,7 @@
       <x:selection activeCell="A3" sqref="A3"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="114.862656" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultColWidth="134.760156" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
     <x:col min="1" max="1" width="18.332031" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="14.441406" style="0" customWidth="1"/>
@@ -47425,7 +47425,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="L2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12298763.2698215</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
